--- a/biology/Histoire de la zoologie et de la botanique/Philippe_Taquet/Philippe_Taquet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Philippe_Taquet/Philippe_Taquet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe Taquet, né le 25 avril 1940 à Saint-Quentin, est un paléontologue français. Il est directeur du Muséum national d'histoire naturelle de 1985 à 1990 et membre de l'Académie des sciences depuis 2004[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Taquet, né le 25 avril 1940 à Saint-Quentin, est un paléontologue français. Il est directeur du Muséum national d'histoire naturelle de 1985 à 1990 et membre de l'Académie des sciences depuis 2004.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe Taquet est le fils de Robert Taquet et de Margueritte Champenois. Lauréat de la Fondation de la Vocation et docteur ès sciences en 1973, il est chercheur au CNRS de 1965 à 1981, puis titulaire de la chaire de paléontologie du Muséum national d'histoire naturelle[2] à partir de 1981. Il dirige l'unité de recherche associée du CNRS, « Paléoanatomie, phylogénie, paléobiogéographie » de 1981 à 1996.
-Il est élu correspondant de l'Académie des sciences le 19 mars 1990, puis membre le 30 novembre 2004 dans la section Sciences de l'univers[1]. Il est vice-président de l'Académie pour la période 2011-2012 et président pour la période 2013-2014[3], ainsi que président du bureau de l'Institut de France pour 2014[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Taquet est le fils de Robert Taquet et de Margueritte Champenois. Lauréat de la Fondation de la Vocation et docteur ès sciences en 1973, il est chercheur au CNRS de 1965 à 1981, puis titulaire de la chaire de paléontologie du Muséum national d'histoire naturelle à partir de 1981. Il dirige l'unité de recherche associée du CNRS, « Paléoanatomie, phylogénie, paléobiogéographie » de 1981 à 1996.
+Il est élu correspondant de l'Académie des sciences le 19 mars 1990, puis membre le 30 novembre 2004 dans la section Sciences de l'univers. Il est vice-président de l'Académie pour la période 2011-2012 et président pour la période 2013-2014, ainsi que président du bureau de l'Institut de France pour 2014.
 Il est, depuis 2004, président de la Commission internationale pour l'histoire de la géologie (INHIGEO)[réf. nécessaire].
-En décembre 2016, Philippe Taquet devient le parrain des promotions 079 et 022 de l'Institut polytechnique LaSalle Beauvais[5].
-Il est président du conseil d'administration de l'Institut océanographique depuis mars 2017[6].
+En décembre 2016, Philippe Taquet devient le parrain des promotions 079 et 022 de l'Institut polytechnique LaSalle Beauvais.
+Il est président du conseil d'administration de l'Institut océanographique depuis mars 2017.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Taquet est un spécialiste des vertébrés mésozoïques (Dinosaures, Crocodiles, Reptiles volants). Durant 50 ans, il a mené des explorations dans de nombreux pays, du désert du Ténéré au Niger au désert de Gobi en Mongolie, de la jungle du Laos aux montagnes du Haut atlas au Maroc, à la recherche de nouveaux gisements fossilifères dans les sédiments du Jurassique et du Crétacé.
 Ses expéditions ont été fructueuses avec la découverte et l’étude en 1965 du cimetière des dinosaures de Gadoufaoua au Niger, un gisement du Crétacé inférieur (Aptien) qui est considéré aujourd’hui comme le plus grand gisement de Dinosaures d’Afrique. Six expéditions sur le terrain ont permis de récolter les ossements fossilisés de 5 nouveaux genres de dinosaures, dont un squelette complet d’un nouvel Iguanodontidé (Ouranosaurus nigeriensis), cousin du genre européen Iguanodon. Ce genre africain est un exemple intéressant montrant l’évolution des Iguanodontidés du Crétacé inférieur vers les Hadrosauridés, les dinosaures à bec de canard du Crétacé supérieur. Le même gisement a livré des os d’un étrange dinosaure carnivore à museau long et étroit, dont Philippe Taquet a été le premier à montrer qu’ils étaient ceux d’un dinosaure piscivore. Le gisement de Gadoufaoua est célèbre également pour avoir livré le squelette du plus grand crocodile ayant existé (11 mètres de longueur) et connu aujourd’hui sous le nom de Sarcosuchus imperator ou plus simplement de «Super croc».
@@ -555,7 +571,7 @@
 			Philippe Taquet est l'un des initiateurs du Musée des dinosaures de Savannakhet (Laos).
 			Un sauropode,  Nigersaurus taqueti, a été dédié à Ph. Taquet en 1999.
 La carrière scientifique de Philippe Taquet est complètement liée avec son engagement en faveur de l’éducation du public avec la présentation de Dinosaures dans des musées au Niger, au Maroc, en Algérie et au Laos.
-Philippe Taquet, qui a dirigé le Muséum national d’Histoire naturelle à Paris de 1985 à 1990 a initié l’ambitieux programme de la rénovation de la galerie de zoologie en Grande galerie de l'Évolution[7], galerie qui depuis son ouverture en 1998 a accueilli 20 millions de visiteurs[8].
+Philippe Taquet, qui a dirigé le Muséum national d’Histoire naturelle à Paris de 1985 à 1990 a initié l’ambitieux programme de la rénovation de la galerie de zoologie en Grande galerie de l'Évolution, galerie qui depuis son ouverture en 1998 a accueilli 20 millions de visiteurs.
 </t>
         </is>
       </c>
@@ -584,11 +600,13 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur (1990)
  Officier de l'ordre national du Mérite (2001)
- Officier de l'ordre de Saint-Charles (2022)[9]</t>
+ Officier de l'ordre de Saint-Charles (2022)</t>
         </is>
       </c>
     </row>
@@ -616,7 +634,9 @@
           <t>Publications les plus divulguées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>P. TAQUET. L’Empreinte des dinosaures, éd. Odile Jacob (1994)
 P. TAQUET. Georges Cuvier : Naissance d’un génie, éd. Odile Jacob (2006) ; premier tome d'une série prévue de trois tomes
@@ -648,7 +668,9 @@
           <t>Autres publications (liste non exhaustive)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>176 publications (CR Palevol, Nature, Journal of Vertebrate Paleontology, etc.) dont : F. de BROIN et P. TAQUET
 P. TAQUET. Découverte d’un Crocodilien nouveau dans le Crétacé inférieur du Sahara. C. R. Acad. Sci. (1966) Ser. II, 262, 2326-2329.
